--- a/application/template/库存盘点.xlsx
+++ b/application/template/库存盘点.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\weigou\application\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
